--- a/medicine/Enfance/Anne_Bernard-Lenoir/Anne_Bernard-Lenoir.xlsx
+++ b/medicine/Enfance/Anne_Bernard-Lenoir/Anne_Bernard-Lenoir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Bernard-Lenoir (née en France en 1966) est une écrivaine canadienne.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Bernard-Lenoir est née en 1966. Elle est franco-canadienne[1], et vit au Québec depuis 1989[2]. « Elle est titulaire de diplômes universitaires en géographie et en études urbaines[1] » obtenus en France puis au Canada[1],[2].
-Jusqu'en 2023, elle a publié en littérature jeunesse une vingtaine de romans, un album et deux pièces de théâtre [2].
-Elle est sélectionnée pour plusieurs prix littéraires jeunesse[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Bernard-Lenoir est née en 1966. Elle est franco-canadienne, et vit au Québec depuis 1989. « Elle est titulaire de diplômes universitaires en géographie et en études urbaines » obtenus en France puis au Canada,.
+Jusqu'en 2023, elle a publié en littérature jeunesse une vingtaine de romans, un album et deux pièces de théâtre .
+Elle est sélectionnée pour plusieurs prix littéraires jeunesse. 
 </t>
         </is>
       </c>
@@ -546,29 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Album documentaire
-Écrire une histoire, c'est construire un château ! (2022)
-Romans
-Le naufragé du Royal Mansion (2023)
-Le chien volant (2016)
-Le Pont du ruisseau Mountain (2013)
-Une disparition poilue (2013)[3],[4]
-L'Invasion des poupons (2013)
-Le Trésor d'Asinius (2013)
-Le Secret du pommier (2012)[5]
-Le Vol de la Joue Ronde (2012)[6]
-L'Inconnu de Beaver (2012)[7]
-L'Expédition Burgess (2011)
-Terreur sur la ligne d'acier (2011)[8],[9].
-La Disparition de Ti-Khuan (2011)[10]
-La Tabatière en or (2011)
-L'Orteil de Paros (2011)[11]
-Le Destin des sorciers (2010)
-Le Secret de l'anesthésiste (2010)
-La Piste du lynx (2008)[12],[13].
-Le Tombeau des dinosaures (2007)
-La Nuit du viking (2006)
-À la recherche du Lucy-Jane (2005)[14]</t>
+          <t>Album documentaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Écrire une histoire, c'est construire un château ! (2022)</t>
         </is>
       </c>
     </row>
@@ -593,15 +591,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Théâtre</t>
+          <t>Publications</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Autrice-dramaturge
-Le petit avare, 2020[15].
-Djeebee, 2020[16].
-Elektro, 2019[17] (co-écriture avec Olivier Challet).</t>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le naufragé du Royal Mansion (2023)
+Le chien volant (2016)
+Le Pont du ruisseau Mountain (2013)
+Une disparition poilue (2013),
+L'Invasion des poupons (2013)
+Le Trésor d'Asinius (2013)
+Le Secret du pommier (2012)
+Le Vol de la Joue Ronde (2012)
+L'Inconnu de Beaver (2012)
+L'Expédition Burgess (2011)
+Terreur sur la ligne d'acier (2011),.
+La Disparition de Ti-Khuan (2011)
+La Tabatière en or (2011)
+L'Orteil de Paros (2011)
+Le Destin des sorciers (2010)
+Le Secret de l'anesthésiste (2010)
+La Piste du lynx (2008),.
+Le Tombeau des dinosaures (2007)
+La Nuit du viking (2006)
+À la recherche du Lucy-Jane (2005)</t>
         </is>
       </c>
     </row>
@@ -626,13 +646,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Autrice-dramaturge
+Le petit avare, 2020.
+Djeebee, 2020.
+Elektro, 2019 (co-écriture avec Olivier Challet).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne_Bernard-Lenoir</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Bernard-Lenoir</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Elle est sélectionnée pour plusieurs prix littéraires jeunesse[2].
-Finaliste Prix du Gouverneur général : littérature jeunesse de langue française - texte 2011[18] pour Enigmae.com, tome 3 : L’orteil de Paros</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Elle est sélectionnée pour plusieurs prix littéraires jeunesse.
+Finaliste Prix du Gouverneur général : littérature jeunesse de langue française - texte 2011 pour Enigmae.com, tome 3 : L’orteil de Paros</t>
         </is>
       </c>
     </row>
